--- a/GameClient/QZ/Assets/__Arts/策划配置工具/skill.xlsx
+++ b/GameClient/QZ/Assets/__Arts/策划配置工具/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14445" windowHeight="11235"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>各种初始化数据</t>
   </si>
@@ -28,18 +28,15 @@
     <t>icon</t>
   </si>
   <si>
-    <t>prefabId</t>
+    <t>cdTime</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>aniName</t>
   </si>
   <si>
-    <t>cdTime</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>param</t>
   </si>
   <si>
@@ -49,25 +46,22 @@
     <t>技能图标</t>
   </si>
   <si>
-    <t>技能预设</t>
-  </si>
-  <si>
-    <t>播放动作名字</t>
-  </si>
-  <si>
     <t>技能cd（秒）</t>
   </si>
   <si>
     <t>技能类型</t>
   </si>
   <si>
+    <t>播放动画名字</t>
+  </si>
+  <si>
     <t>技能额外参数</t>
   </si>
   <si>
     <t>ttt</t>
   </si>
   <si>
-    <t>tttt</t>
+    <t>atk1</t>
   </si>
 </sst>
 </file>
@@ -75,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,8 +97,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,55 +151,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,33 +191,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,14 +215,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,37 +236,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,31 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,109 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,17 +430,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,10 +484,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -499,21 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -522,17 +527,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,145 +535,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,21 +1003,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1031,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1050,21 +1042,18 @@
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
@@ -1073,54 +1062,45 @@
       <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GameClient/QZ/Assets/__Arts/策划配置工具/skill.xlsx
+++ b/GameClient/QZ/Assets/__Arts/策划配置工具/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>各种初始化数据</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>atk1</t>
+  </si>
+  <si>
+    <t>muzzleEffectName=bullet_com_qiangkou_1;bulletEffectName=bullet_com_zidan_1;moveSpeed=40;showTime=3</t>
+  </si>
+  <si>
+    <t>muzzleEffectName=bullet_com_qiangkou_2;bulletEffectName=bullet_com_zidan_2;moveSpeed=40;showTime=3</t>
   </si>
 </sst>
 </file>
@@ -69,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,23 +89,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,114 +174,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,13 +242,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,120 +416,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,48 +423,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,17 +436,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,21 +465,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,11 +504,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,16 +553,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,115 +571,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,19 +1009,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="101.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1091,7 +1098,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1100,7 +1107,27 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/GameClient/QZ/Assets/__Arts/策划配置工具/skill.xlsx
+++ b/GameClient/QZ/Assets/__Arts/策划配置工具/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>各种初始化数据</t>
   </si>
@@ -31,6 +31,12 @@
     <t>cdTime</t>
   </si>
   <si>
+    <t>conjureRadius</t>
+  </si>
+  <si>
+    <t>fireRadius</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -47,6 +53,12 @@
   </si>
   <si>
     <t>技能cd（秒）</t>
+  </si>
+  <si>
+    <t>施法半径</t>
+  </si>
+  <si>
+    <t>爆炸半径</t>
   </si>
   <si>
     <t>技能类型</t>
@@ -75,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,17 +101,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,7 +139,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,9 +153,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,15 +190,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,75 +223,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,18 +254,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -272,109 +290,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,43 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,24 +445,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,6 +459,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,11 +489,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +501,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +535,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,20 +1021,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="101.375" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="23.375" customWidth="1"/>
+    <col min="9" max="9" width="101.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1030,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1049,8 +1062,14 @@
       <c r="G2" t="s">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1069,65 +1088,89 @@
       <c r="G3" t="s">
         <v>7</v>
       </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>0.2</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:9">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
